--- a/medicine/Psychotrope/Vinacafé/Vinacafé.xlsx
+++ b/medicine/Psychotrope/Vinacafé/Vinacafé.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Vinacaf%C3%A9</t>
+          <t>Vinacafé</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Vinacafé (vietnamien : Vinacafé Biên Hòa) est une société d'État vietnamienne[2] impliquée dans la production, la transformation et la distribution de café et mélange de céréales instantanée[3],[4].
+Vinacafé (vietnamien : Vinacafé Biên Hòa) est une société d'État vietnamienne impliquée dans la production, la transformation et la distribution de café et mélange de céréales instantanée,.
 </t>
         </is>
       </c>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Vinacaf%C3%A9</t>
+          <t>Vinacafé</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,11 +524,13 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Créée en 1969 par l'ingénieur français Marcel Coronel à l'usine de café Coronel de Biên Hòa, dans la province de Đồng Nai, l'entreprise a été remise à l'Etat lorsque Coronel et sa famille ont quitté le pays à la fin de la guerre du Viêt Nam.
 L'usine a fabriqué ses premiers lots de café instantané en 1977. 
-La marque Vinacafé a été créée en 1983, et la société est devenue une société par actions en décembre 2004[5].
+La marque Vinacafé a été créée en 1983, et la société est devenue une société par actions en décembre 2004.
 </t>
         </is>
       </c>
@@ -527,7 +541,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Vinacaf%C3%A9</t>
+          <t>Vinacafé</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,9 +559,11 @@
           <t>Actionnaires</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Au début 2020, les actionnaires de Vinacafé  sont[6]:
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Au début 2020, les actionnaires de Vinacafé  sont:
 </t>
         </is>
       </c>
